--- a/docs/exercises/StudyWork.xlsx
+++ b/docs/exercises/StudyWork.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GolangSEU/codebase/gopath/src/github.com/jweigend/concepts-of-programming-languages/docs/exercises/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johannes.weigend\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D4B6E34-1F0F-4048-A55A-2A4E0EFE4CD7}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A110AB7B-4E7F-4454-9569-64AA889A77AE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{C35809D5-1D7A-C94A-9E5B-C620347623D5}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="15540" xr2:uid="{C35809D5-1D7A-C94A-9E5B-C620347623D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
   <si>
     <t>Haskell</t>
   </si>
@@ -63,9 +63,6 @@
     <t>Erlang</t>
   </si>
   <si>
-    <t>Occam</t>
-  </si>
-  <si>
     <t>Rust</t>
   </si>
   <si>
@@ -90,9 +87,6 @@
     <t>Ruby</t>
   </si>
   <si>
-    <t>JS (Node)</t>
-  </si>
-  <si>
     <t xml:space="preserve">C </t>
   </si>
   <si>
@@ -162,9 +156,6 @@
     <t>Johann Neuhauser</t>
   </si>
   <si>
-    <t>entfällt</t>
-  </si>
-  <si>
     <t>Mnr</t>
   </si>
   <si>
@@ -172,6 +163,21 @@
   </si>
   <si>
     <t>Slawomir Danzl</t>
+  </si>
+  <si>
+    <t>Präsentation</t>
+  </si>
+  <si>
+    <t>Pause</t>
+  </si>
+  <si>
+    <t>15 Minuten</t>
+  </si>
+  <si>
+    <t>55 Minuten</t>
+  </si>
+  <si>
+    <t>Ende</t>
   </si>
 </sst>
 </file>
@@ -211,7 +217,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -228,41 +234,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <font>
         <b val="0"/>
@@ -341,6 +337,44 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -372,13 +406,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0F198313-1445-ED4D-9D04-B83A5520AFBE}" name="Tabelle1" displayName="Tabelle1" ref="A1:D24" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
-  <autoFilter ref="A1:D24" xr:uid="{E6C93251-0F58-1746-B29F-6CF4C2AB3109}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{4CBA16D0-D6DB-A447-9B16-03D4F8B358D8}" name="Aufgabe" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{AEC9CF4A-EF7A-0448-B606-B27364E31B1A}" name="Sprache" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{C3720BCA-3043-7E44-A0BA-5ED7ED3D5AD5}" name="Name" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{8087D8F3-D1E8-8343-97DE-A19BB3EBF868}" name="Mnr" dataDxfId="4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0F198313-1445-ED4D-9D04-B83A5520AFBE}" name="Tabelle1" displayName="Tabelle1" ref="A1:E28" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E28" xr:uid="{E6C93251-0F58-1746-B29F-6CF4C2AB3109}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{4CBA16D0-D6DB-A447-9B16-03D4F8B358D8}" name="Aufgabe" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{AEC9CF4A-EF7A-0448-B606-B27364E31B1A}" name="Sprache" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{C3720BCA-3043-7E44-A0BA-5ED7ED3D5AD5}" name="Name" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{8087D8F3-D1E8-8343-97DE-A19BB3EBF868}" name="Mnr" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{F0B46B20-5AC0-45BE-B31C-63EEE68EBD0C}" name="Präsentation" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -684,312 +719,423 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="58.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.25" customWidth="1"/>
+    <col min="5" max="5" width="16.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D2" s="1">
         <v>790431</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
+      <c r="E2" s="3">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D3" s="1">
         <v>790770</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
+      <c r="E3" s="3">
+        <v>0.3888888888888889</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D4" s="1">
         <v>826440</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="21" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
+      <c r="E4" s="3">
+        <v>0.40277777777777773</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D5" s="1">
         <v>806589</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="1" t="s">
+      <c r="E5" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="1">
+        <v>839012</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.44097222222222227</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="1">
+        <v>826563</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.4548611111111111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="1">
+        <v>795647</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.46875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="1">
-        <v>839012</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="21" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="1">
-        <v>826563</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="21" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="1">
-        <v>795647</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="21" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="1" t="s">
+      <c r="D10" s="1">
+        <v>809002</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.4826388888888889</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="1">
+        <v>835581</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.53472222222222221</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="1">
+        <v>831557</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.54861111111111105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="1">
+        <v>825217</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="1">
+        <v>803222</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.58680555555555558</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="1">
-        <v>809002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="21" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="1">
-        <v>835581</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="21" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="1">
-        <v>831557</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="21" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="1">
-        <v>825217</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="21" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="1">
-        <v>803222</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="21" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="1">
-        <v>837017</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="21" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="1">
-        <v>819023</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="21" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="1">
-        <v>917991</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="21" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D17" s="1">
+        <v>837017</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.60069444444444442</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="1">
+        <v>819023</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.61458333333333337</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="1">
+        <v>917991</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.62847222222222221</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="1">
         <v>840113</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="21" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
-      <c r="B18" s="1" t="s">
+      <c r="E21" s="3">
+        <v>0.65277777777777779</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="1">
+      <c r="C22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="1">
         <v>834381</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="21" x14ac:dyDescent="0.2">
-      <c r="A19" s="3"/>
-      <c r="B19" s="2" t="s">
+      <c r="E22" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="1:4" ht="21" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
-      <c r="B20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="C23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="1">
+        <v>831133</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0.68055555555555547</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="1">
+        <v>899511</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0.70486111111111116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="1">
-        <v>831133</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="21" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="1:4" ht="21" x14ac:dyDescent="0.2">
-      <c r="A22" s="3"/>
-      <c r="B22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="1">
-        <v>899511</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="21" x14ac:dyDescent="0.2">
-      <c r="A23" s="3"/>
-      <c r="B23" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" s="1">
+      <c r="D26" s="1">
         <v>831186</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="21" x14ac:dyDescent="0.2">
-      <c r="A24" s="3"/>
-      <c r="B24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" s="1">
+      <c r="E26" s="3">
+        <v>0.71875</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="1">
         <v>832653</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0.73263888888888884</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" s="6">
+        <v>0.74652777777777779</v>
       </c>
     </row>
   </sheetData>

--- a/docs/exercises/StudyWork.xlsx
+++ b/docs/exercises/StudyWork.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johannes.weigend\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GolangSEU/codebase/gopath/src/github.com/jweigend/concepts-of-programming-languages/docs/exercises/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A110AB7B-4E7F-4454-9569-64AA889A77AE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A0E4D3C-5B4C-744D-8474-09A1C01DE714}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="15540" xr2:uid="{C35809D5-1D7A-C94A-9E5B-C620347623D5}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{C35809D5-1D7A-C94A-9E5B-C620347623D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="50">
   <si>
     <t>Haskell</t>
   </si>
@@ -174,10 +174,7 @@
     <t>15 Minuten</t>
   </si>
   <si>
-    <t>55 Minuten</t>
-  </si>
-  <si>
-    <t>Ende</t>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -234,7 +231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -252,6 +249,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -406,8 +406,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0F198313-1445-ED4D-9D04-B83A5520AFBE}" name="Tabelle1" displayName="Tabelle1" ref="A1:E28" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E28" xr:uid="{E6C93251-0F58-1746-B29F-6CF4C2AB3109}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0F198313-1445-ED4D-9D04-B83A5520AFBE}" name="Tabelle1" displayName="Tabelle1" ref="A1:E30" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E30" xr:uid="{E6C93251-0F58-1746-B29F-6CF4C2AB3109}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{4CBA16D0-D6DB-A447-9B16-03D4F8B358D8}" name="Aufgabe" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{AEC9CF4A-EF7A-0448-B606-B27364E31B1A}" name="Sprache" dataDxfId="3"/>
@@ -719,20 +719,20 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="58.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="58.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.25" customWidth="1"/>
-    <col min="5" max="5" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -749,393 +749,411 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.2">
+      <c r="A2" s="7">
+        <v>43110</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D3" s="1">
         <v>790431</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E3" s="3">
         <v>0.375</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="1">
-        <v>790770</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0.3888888888888889</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D4" s="1">
-        <v>826440</v>
+        <v>790770</v>
       </c>
       <c r="E4" s="3">
-        <v>0.40277777777777773</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>0.3888888888888889</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="21" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="1">
+        <v>826440</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.40277777777777773</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="21" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D6" s="1">
         <v>806589</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E6" s="3">
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5" t="s">
+    <row r="7" spans="1:5" ht="21" x14ac:dyDescent="0.2">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E7" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="1">
-        <v>839012</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0.44097222222222227</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="21" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D8" s="1">
-        <v>826563</v>
+        <v>839012</v>
       </c>
       <c r="E8" s="3">
-        <v>0.4548611111111111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>0.44097222222222227</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="21" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D9" s="1">
-        <v>795647</v>
+        <v>826563</v>
       </c>
       <c r="E9" s="3">
-        <v>0.46875</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>0.4548611111111111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="21" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="1">
+        <v>795647</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.46875</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="21" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+      <c r="B11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D11" s="1">
         <v>809002</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E11" s="3">
         <v>0.4826388888888889</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5" t="s">
+    <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.2">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="E12" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="21" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D13" s="1">
         <v>835581</v>
       </c>
-      <c r="E12" s="3">
-        <v>0.53472222222222221</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="1">
-        <v>831557</v>
-      </c>
       <c r="E13" s="3">
-        <v>0.54861111111111105</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>0.51041666666666663</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="21" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D14" s="1">
-        <v>825217</v>
+        <v>831557</v>
       </c>
       <c r="E14" s="3">
-        <v>0.5625</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>0.52430555555555558</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
+      <c r="B15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="1">
+        <v>803222</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.53819444444444442</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
-      <c r="B16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="1">
-        <v>803222</v>
-      </c>
-      <c r="E16" s="3">
-        <v>0.58680555555555558</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="1">
-        <v>837017</v>
-      </c>
-      <c r="E17" s="3">
-        <v>0.60069444444444442</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.2">
+      <c r="A17" s="7">
+        <v>43117</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D18" s="1">
-        <v>819023</v>
+        <v>837017</v>
       </c>
       <c r="E18" s="3">
-        <v>0.61458333333333337</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="1">
+        <v>819023</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.3888888888888889</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="21" x14ac:dyDescent="0.2">
+      <c r="A20" s="2"/>
+      <c r="B20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="1">
+        <v>825217</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0.40277777777777773</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="21" x14ac:dyDescent="0.2">
+      <c r="A21" s="2"/>
+      <c r="B21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D21" s="1">
         <v>917991</v>
       </c>
-      <c r="E19" s="3">
-        <v>0.62847222222222221</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5" t="s">
+      <c r="E21" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.2">
+      <c r="A22" s="4"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E22" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row r="23" spans="1:5" ht="21" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D23" s="1">
         <v>840113</v>
       </c>
-      <c r="E21" s="3">
-        <v>0.65277777777777779</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="1" t="s">
+      <c r="E23" s="3">
+        <v>0.44097222222222227</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="21" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D24" s="1">
         <v>834381</v>
       </c>
-      <c r="E22" s="3">
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="1" t="s">
+      <c r="E24" s="3">
+        <v>0.4548611111111111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="21" x14ac:dyDescent="0.2">
+      <c r="A25" s="2"/>
+      <c r="B25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D25" s="1">
         <v>831133</v>
       </c>
-      <c r="E23" s="3">
-        <v>0.68055555555555547</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5" t="s">
+      <c r="E25" s="3">
+        <v>0.46875</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="21" x14ac:dyDescent="0.2">
+      <c r="A26" s="4"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E26" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+    <row r="27" spans="1:5" ht="21" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D27" s="1">
         <v>899511</v>
       </c>
-      <c r="E25" s="3">
-        <v>0.70486111111111116</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="1" t="s">
+      <c r="E27" s="3">
+        <v>0.49305555555555558</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="21" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
+      <c r="B28" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D28" s="1">
         <v>831186</v>
       </c>
-      <c r="E26" s="3">
-        <v>0.71875</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="1" t="s">
+      <c r="E28" s="3">
+        <v>0.50694444444444442</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="21" x14ac:dyDescent="0.2">
+      <c r="A29" s="2"/>
+      <c r="B29" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D29" s="1">
         <v>832653</v>
       </c>
-      <c r="E27" s="3">
-        <v>0.73263888888888884</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E28" s="6">
-        <v>0.74652777777777779</v>
+      <c r="E29" s="3">
+        <v>0.52083333333333337</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="21" x14ac:dyDescent="0.2">
+      <c r="A30" s="4"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/docs/exercises/StudyWork.xlsx
+++ b/docs/exercises/StudyWork.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GolangSEU/codebase/gopath/src/github.com/jweigend/concepts-of-programming-languages/docs/exercises/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A0E4D3C-5B4C-744D-8474-09A1C01DE714}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92BC1DCF-8D62-884D-A399-EE37233040CA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{C35809D5-1D7A-C94A-9E5B-C620347623D5}"/>
+    <workbookView xWindow="4000" yWindow="2960" windowWidth="25600" windowHeight="15540" xr2:uid="{C35809D5-1D7A-C94A-9E5B-C620347623D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="51">
   <si>
     <t>Haskell</t>
   </si>
@@ -175,6 +175,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>ENDE</t>
   </si>
 </sst>
 </file>
@@ -721,7 +724,9 @@
   </sheetPr>
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -953,8 +958,12 @@
       <c r="A16" s="2"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="3"/>
+      <c r="D16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.55208333333333337</v>
+      </c>
     </row>
     <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
@@ -1150,10 +1159,10 @@
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="E30" s="6">
+        <v>0.53472222222222221</v>
       </c>
     </row>
   </sheetData>

--- a/docs/exercises/StudyWork.xlsx
+++ b/docs/exercises/StudyWork.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GolangSEU/codebase/gopath/src/github.com/jweigend/concepts-of-programming-languages/docs/exercises/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92BC1DCF-8D62-884D-A399-EE37233040CA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D62CB1-C5C3-F64E-A119-2E30C41CA265}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4000" yWindow="2960" windowWidth="25600" windowHeight="15540" xr2:uid="{C35809D5-1D7A-C94A-9E5B-C620347623D5}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="52">
   <si>
     <t>Haskell</t>
   </si>
@@ -123,9 +123,6 @@
     <t>Lukas Buchner</t>
   </si>
   <si>
-    <t>Adam Bier</t>
-  </si>
-  <si>
     <t>Sebastian Ester</t>
   </si>
   <si>
@@ -178,6 +175,12 @@
   </si>
   <si>
     <t>ENDE</t>
+  </si>
+  <si>
+    <t>Adrian Bier</t>
+  </si>
+  <si>
+    <t>abgemeldet</t>
   </si>
 </sst>
 </file>
@@ -208,7 +211,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -218,6 +221,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -234,7 +243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -255,6 +264,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -725,7 +743,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -748,10 +766,10 @@
         <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.2">
@@ -771,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" s="1">
         <v>790431</v>
@@ -786,7 +804,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" s="1">
         <v>790770</v>
@@ -801,7 +819,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" s="1">
         <v>826440</v>
@@ -830,10 +848,10 @@
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="21" x14ac:dyDescent="0.2">
@@ -872,7 +890,7 @@
         <v>18</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" s="1">
         <v>795647</v>
@@ -887,7 +905,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" s="1">
         <v>809002</v>
@@ -901,10 +919,10 @@
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="21" x14ac:dyDescent="0.2">
@@ -930,7 +948,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="1">
         <v>831557</v>
@@ -945,7 +963,7 @@
         <v>17</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="1">
         <v>803222</v>
@@ -959,7 +977,7 @@
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E16" s="3">
         <v>0.55208333333333337</v>
@@ -972,10 +990,10 @@
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.2">
@@ -984,7 +1002,7 @@
         <v>2</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D18" s="1">
         <v>837017</v>
@@ -1014,7 +1032,7 @@
         <v>10</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D20" s="1">
         <v>825217</v>
@@ -1024,17 +1042,19 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="21" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
-      <c r="B21" s="1" t="s">
+      <c r="A21" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="1">
+      <c r="C21" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="9">
         <v>917991</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="10">
         <v>0.41666666666666669</v>
       </c>
     </row>
@@ -1043,10 +1063,10 @@
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="21" x14ac:dyDescent="0.2">
@@ -1057,7 +1077,7 @@
         <v>11</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D23" s="1">
         <v>840113</v>
@@ -1087,7 +1107,7 @@
         <v>12</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D25" s="1">
         <v>831133</v>
@@ -1101,10 +1121,10 @@
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="21" x14ac:dyDescent="0.2">
@@ -1130,7 +1150,7 @@
         <v>2</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D28" s="1">
         <v>831186</v>
@@ -1159,7 +1179,7 @@
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E30" s="6">
         <v>0.53472222222222221</v>
